--- a/feature_importance.xlsx
+++ b/feature_importance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Day_Wed</t>
+          <t>AwayDiv_AFC South</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HomeDiv_AFC North</t>
+          <t>HomeTeam</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HomeTeam</t>
+          <t>HomeDiv_AFC South</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Season_2023</t>
+          <t>Day_Wed</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Season_2022</t>
+          <t>Day_Tue</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Season_2021</t>
+          <t>Day_Thu</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Day_Tue</t>
+          <t>Day_Sun</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AwayDiv_AFC South</t>
+          <t>Day_Sat</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Day_Thu</t>
+          <t>HomeDiv_NFC North</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Day_Sun</t>
+          <t>HomeDiv_NFC South</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Day_Sat</t>
+          <t>AwayDiv_NFC South</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HomeDiv_NFC North</t>
+          <t>AwayDiv_NFC North</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HomeDiv_NFC South</t>
+          <t>AwayDiv_NFC East</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AwayDiv_NFC South</t>
+          <t>HomeDiv_NFC West</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,40 +978,10 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AwayDiv_NFC North</t>
+          <t>HomeDiv_AFC North</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>AwayDiv_NFC East</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>HomeDiv_NFC West</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>HomeDiv_AFC South</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
         <v>0</v>
       </c>
     </row>

--- a/feature_importance.xlsx
+++ b/feature_importance.xlsx
@@ -448,31 +448,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Home_PrevYrW</t>
+          <t>Home_Last 5_Margin</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1016359478235245</v>
+        <v>0.05351933464407921</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Away_PrevYrW</t>
+          <t>Away _Last 5_ Margin</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07486826181411743</v>
+        <v>0.04466285929083824</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Away_Third_Down</t>
+          <t>A_Prev_PPG</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04213834926486015</v>
+        <v>0.04288320243358612</v>
       </c>
     </row>
     <row r="5">
@@ -482,67 +482,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04002377390861511</v>
+        <v>0.04272532090544701</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Prev_Rush</t>
+          <t>A_Prev_Pass</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03657178208231926</v>
+        <v>0.0414387471973896</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A_Prev_Sacks_Taken</t>
+          <t>Prev_Sacks_Taken</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03552510216832161</v>
+        <v>0.03404835984110832</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Week_Third_Down</t>
+          <t>Def_PassRTG</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03309766203165054</v>
+        <v>0.03227928280830383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A_Prev_Pass</t>
+          <t>A_Prev_Sacks_Taken</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03158864751458168</v>
+        <v>0.03184231370687485</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A_Prev_Spec</t>
+          <t>Prev_Rush</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03150368481874466</v>
+        <v>0.03159726411104202</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A_Wins5</t>
+          <t>A_Prev_Rush</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03084815852344036</v>
+        <v>0.03113587573170662</v>
       </c>
     </row>
     <row r="12">
@@ -552,293 +552,293 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.030622448772192</v>
+        <v>0.03051367402076721</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AwayDiv_NFC West</t>
+          <t>Prev_PPG</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0305547509342432</v>
+        <v>0.02978039532899857</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A_Prev_Def_PPG</t>
+          <t>HomeDiv_AFC North</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02840149961411953</v>
+        <v>0.02932943776249886</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Away_Penalty_Yards</t>
+          <t>A_Prev_Def_PPG</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02695178240537643</v>
+        <v>0.02738093212246895</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A_Prev_PPG</t>
+          <t>Away_PrevYrW</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02685374207794666</v>
+        <v>0.02699758298695087</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Day_Mon</t>
+          <t>Home_QBInjury</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02640647441148758</v>
+        <v>0.02596757374703884</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Away_WinInteraction</t>
+          <t>Home_PrevYrW</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02634677290916443</v>
+        <v>0.0257403627038002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Def_PassRTG</t>
+          <t>Away_QBInjury</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02596178464591503</v>
+        <v>0.02519631385803223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Home_Last 5_Margin</t>
+          <t>Week_WinInteraction</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02516847662627697</v>
+        <v>0.02432323805987835</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HomeDiv_AFC West</t>
+          <t>Away_Third_Down</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02415483072400093</v>
+        <v>0.0237570833414793</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Prev_Pass</t>
+          <t>Away_WinInteraction</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02353436499834061</v>
+        <v>0.02296528592705727</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Prev_Sacks_Taken</t>
+          <t>AwayDiv_NFC West</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02272716723382473</v>
+        <v>0.02284062094986439</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Week_TO_Margin_Interaction</t>
+          <t>A_Prev_Spec</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02232338860630989</v>
+        <v>0.02257499098777771</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Prev_PPG</t>
+          <t>Prev_Def_PPG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02209762670099735</v>
+        <v>0.0223784688860178</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Away_QBInjury</t>
+          <t>Week_TO_Margin_Interaction</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02201463468372822</v>
+        <v>0.02150846086442471</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A_Prev_Rush</t>
+          <t>Prev_Tot_Def</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02178576588630676</v>
+        <v>0.02126043289899826</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Week_WinInteraction</t>
+          <t>Week_Third_Down</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02107764221727848</v>
+        <v>0.0208237674087286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Prev_Tot_Def</t>
+          <t>HomeDiv_NFC North</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02096480131149292</v>
+        <v>0.02044583857059479</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Home_QBInjury</t>
+          <t>A_Wins5</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02081657387316227</v>
+        <v>0.01979056186974049</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Away _Last 5_ Margin</t>
+          <t>Day_Mon</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01976417563855648</v>
+        <v>0.01970954798161983</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>H_Wins5</t>
+          <t>Away_TO_Margin_Interaction</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01689951308071613</v>
+        <v>0.01957257837057114</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Away_TO_Margin_Interaction</t>
+          <t>HomeDiv_NFC East</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01675639487802982</v>
+        <v>0.01946909911930561</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Prev_Spec</t>
+          <t>Away_Penalty_Yards</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01637552306056023</v>
+        <v>0.01933771558105946</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Prev_Pass</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.00363849988207221</v>
+        <v>0.01843366026878357</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AwayDiv_AFC North</t>
+          <t>A_Def_PassRTG</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.01728787273168564</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AwayDiv_AFC South</t>
+          <t>Prev_Spec</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.01265790220350027</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AwayTeam</t>
+          <t>Day_Thu</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.01179203484207392</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Prev_Def_PPG</t>
+          <t>HomeDiv_NFC West</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.008180109784007072</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A_Def_PassRTG</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.003851997898891568</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HomeTeam</t>
+          <t>AwayDiv_NFC South</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HomeDiv_AFC South</t>
+          <t>HomeDiv_AFC West</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HomeDiv_NFC East</t>
+          <t>HomeDiv_AFC South</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Day_Wed</t>
+          <t>Day_Sat</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Day_Tue</t>
+          <t>AwayDiv_AFC North</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Day_Thu</t>
+          <t>AwayDiv_NFC North</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Day_Sun</t>
+          <t>Day_Tue</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Day_Sat</t>
+          <t>Day_Wed</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HomeDiv_NFC North</t>
+          <t>HomeTeam</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HomeDiv_NFC South</t>
+          <t>AwayDiv_NFC East</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AwayDiv_NFC South</t>
+          <t>HomeDiv_NFC South</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AwayDiv_NFC North</t>
+          <t>AwayDiv_AFC South</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AwayDiv_NFC East</t>
+          <t>H_Wins5</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HomeDiv_NFC West</t>
+          <t>AwayTeam</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HomeDiv_AFC North</t>
+          <t>Day_Sun</t>
         </is>
       </c>
       <c r="B55" t="n">

--- a/feature_importance.xlsx
+++ b/feature_importance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,536 +452,396 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05351933464407921</v>
+        <v>0.1112767007389389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Away _Last 5_ Margin</t>
+          <t>Prev_Rush</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04466285929083824</v>
+        <v>0.09427479998943883</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A_Prev_PPG</t>
+          <t>Away _Last 5_ Margin</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04288320243358612</v>
+        <v>0.07671970318667719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A_Prev_Tot_Def</t>
+          <t>A_Prev_Pass</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04272532090544701</v>
+        <v>0.0680886434333324</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A_Prev_Pass</t>
+          <t>Week_TO_Margin_Interaction</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0414387471973896</v>
+        <v>0.04508925949423884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Prev_Sacks_Taken</t>
+          <t>Prev_Spec</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03404835984110832</v>
+        <v>0.04308770721675662</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Def_PassRTG</t>
+          <t>Away_PrevYrW</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03227928280830383</v>
+        <v>0.04291532262166163</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A_Prev_Sacks_Taken</t>
+          <t>A_Prev_Rush</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03184231370687485</v>
+        <v>0.04079322261163119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Prev_Rush</t>
+          <t>Week_WinInteraction</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03159726411104202</v>
+        <v>0.04037415091441079</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A_Prev_Rush</t>
+          <t>Prev_Tot_Def</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03113587573170662</v>
+        <v>0.04026684438206787</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AwayDiv_AFC West</t>
+          <t>A_Prev_Tot_Def</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03051367402076721</v>
+        <v>0.04017440186146815</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Prev_PPG</t>
+          <t>Prev_Pass</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02978039532899857</v>
+        <v>0.0388112417699172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HomeDiv_AFC North</t>
+          <t>A_Prev_Spec</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02932943776249886</v>
+        <v>0.0384022732972765</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A_Prev_Def_PPG</t>
+          <t>Away_TO_Margin_Interaction</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02738093212246895</v>
+        <v>0.03635120387902429</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Away_PrevYrW</t>
+          <t>Away_Penalty_Yards</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02699758298695087</v>
+        <v>0.03528162460422748</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Home_QBInjury</t>
+          <t>Week_Third_Down</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02596757374703884</v>
+        <v>0.03508914130488096</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Home_PrevYrW</t>
+          <t>Away_WinInteraction</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0257403627038002</v>
+        <v>0.03481521523097079</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Away_QBInjury</t>
+          <t>Away_Third_Down</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02519631385803223</v>
+        <v>0.03402573776446908</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Week_WinInteraction</t>
+          <t>Home_PrevYrW</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02432323805987835</v>
+        <v>0.01857825092209707</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Away_Third_Down</t>
+          <t>H_Wins5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0237570833414793</v>
+        <v>0.01207379355938058</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Away_WinInteraction</t>
+          <t>A_Wins5</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02296528592705727</v>
+        <v>0.01140159348374387</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AwayDiv_NFC West</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02284062094986439</v>
+        <v>0.00974243199044653</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A_Prev_Spec</t>
+          <t>AwayDiv_AFC North</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02257499098777771</v>
+        <v>0.007059540185243753</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Prev_Def_PPG</t>
+          <t>HomeDiv_NFC East</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0223784688860178</v>
+        <v>0.006494758910149957</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Week_TO_Margin_Interaction</t>
+          <t>Home_QBInjury</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02150846086442471</v>
+        <v>0.004269137864614808</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Prev_Tot_Def</t>
+          <t>HomeDiv_NFC West</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02126043289899826</v>
+        <v>0.003838526969471777</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Week_Third_Down</t>
+          <t>HomeDiv_AFC North</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0208237674087286</v>
+        <v>0.003714904396126878</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HomeDiv_NFC North</t>
+          <t>AwayDiv_NFC South</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02044583857059479</v>
+        <v>0.00361301408343365</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A_Wins5</t>
+          <t>AwayDiv_AFC South</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01979056186974049</v>
+        <v>0.003530893725743437</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Day_Mon</t>
+          <t>AwayDiv_AFC West</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01970954798161983</v>
+        <v>0.003225943223864184</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Away_TO_Margin_Interaction</t>
+          <t>HomeDiv_NFC North</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01957257837057114</v>
+        <v>0.00291349669610598</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HomeDiv_NFC East</t>
+          <t>HomeDiv_NFC South</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01946909911930561</v>
+        <v>0.002590572972765159</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Away_Penalty_Yards</t>
+          <t>Away_QBInjury</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01933771558105946</v>
+        <v>0.002509746243145366</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Prev_Pass</t>
+          <t>AwayDiv_NFC East</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01843366026878357</v>
+        <v>0.002127674277777717</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A_Def_PassRTG</t>
+          <t>AwayDiv_NFC West</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01728787273168564</v>
+        <v>0.001915255323526914</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Prev_Spec</t>
+          <t>HomeDiv_AFC West</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01265790220350027</v>
+        <v>0.001730694935832774</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Day_Thu</t>
+          <t>AwayDiv_NFC North</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01179203484207392</v>
+        <v>0.001484409597807534</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HomeDiv_NFC West</t>
+          <t>HomeDiv_AFC South</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.008180109784007072</v>
+        <v>0.001348166337333254</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>HomeTeam</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.003851997898891568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AwayDiv_NFC South</t>
+          <t>AwayTeam</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>HomeDiv_AFC West</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>HomeDiv_AFC South</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Day_Sat</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>AwayDiv_AFC North</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>AwayDiv_NFC North</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Day_Tue</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Day_Wed</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>HomeTeam</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>AwayDiv_NFC East</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>HomeDiv_NFC South</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>AwayDiv_AFC South</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>H_Wins5</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>AwayTeam</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Day_Sun</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
         <v>0</v>
       </c>
     </row>
